--- a/public/sampleCctv.xlsx
+++ b/public/sampleCctv.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PPABIBNBX013\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp_8\htdocs\coba_newitportal\IT-PORTAL-HO\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDEBCA13-C847-4120-B48D-AD3ADEB2DA35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F7CFB0-DD88-4DA0-9684-9F7AC9D95EE8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,9 +45,6 @@
     <t>note</t>
   </si>
   <si>
-    <t>FORMAT IMPORT DATA ACCESS POINT (PADA COLUMN MAX_ID WAJIB DI ISI NOMER URUT SESUAI DENGAN NOMER URUT INVENTORY)</t>
-  </si>
-  <si>
     <t>READY_USED</t>
   </si>
   <si>
@@ -115,13 +112,16 @@
   </si>
   <si>
     <t>PPAHOCCTV007</t>
+  </si>
+  <si>
+    <t>FORMAT IMPORT DATA CCTV (PADA COLUMN MAX_ID WAJIB DI ISI NOMER URUT SESUAI DENGAN NOMER URUT INVENTORY)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,7 +305,7 @@
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="18764250" cy="2857500"/>
+    <xdr:ext cx="18764250" cy="2634343"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="7" name="Picture 6">
@@ -332,7 +332,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="18764250" cy="2857500"/>
+          <a:ext cx="18764250" cy="2634343"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -668,27 +668,27 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="34.42578125" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.3984375" customWidth="1"/>
+    <col min="7" max="7" width="34.3984375" customWidth="1"/>
+    <col min="8" max="8" width="14.8984375" customWidth="1"/>
+    <col min="9" max="9" width="17.8984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="28" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.69921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.69921875" customWidth="1"/>
+    <col min="13" max="13" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -704,7 +704,7 @@
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -720,7 +720,7 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -736,7 +736,7 @@
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -752,7 +752,7 @@
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -768,7 +768,7 @@
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -784,7 +784,7 @@
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -800,7 +800,7 @@
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -816,7 +816,7 @@
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -832,7 +832,7 @@
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -848,7 +848,7 @@
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -864,7 +864,7 @@
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -880,9 +880,9 @@
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -899,7 +899,7 @@
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -916,9 +916,9 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15">
       <c r="A18" s="8" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -935,42 +935,42 @@
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15">
       <c r="A19" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F19" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>3</v>
       </c>
       <c r="J19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="L19" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="M19" s="4" t="s">
         <v>4</v>
@@ -980,318 +980,318 @@
       </c>
       <c r="O19" s="4"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15">
       <c r="A20" s="2">
         <v>1</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I20" s="5" t="s">
+      <c r="J20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="K20" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15">
       <c r="A21" s="2">
         <v>2</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I21" s="5" t="s">
+      <c r="J21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="K21" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15">
       <c r="A22" s="2">
         <v>3</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="G22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I22" s="5" t="s">
+      <c r="J22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="K22" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15">
       <c r="A23" s="2">
         <v>4</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="G23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I23" s="5" t="s">
+      <c r="J23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="K23" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15">
       <c r="A24" s="2">
         <v>5</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="G24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I24" s="5" t="s">
+      <c r="J24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="K24" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15">
       <c r="A25" s="2">
         <v>6</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="G25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I25" s="5" t="s">
+      <c r="J25" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="K25" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15">
       <c r="A26" s="2">
         <v>7</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="G26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I26" s="5" t="s">
+      <c r="J26" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="K26" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O26" s="2"/>
     </row>
